--- a/ctinews_data.xlsx
+++ b/ctinews_data.xlsx
@@ -25,49 +25,49 @@
     <t>content</t>
   </si>
   <si>
-    <t>政院第3波人事！「國安三長」留任　梁文傑接陸委會副主委</t>
-  </si>
-  <si>
-    <t>重大進展！台食品輸陸註冊問題　陸國台辦：金酒等63家業者放行</t>
-  </si>
-  <si>
-    <t>蔡英文找陳建仁組閣埋伏筆？吳子嘉預測「這2人」挑戰2024</t>
-  </si>
-  <si>
-    <t>綠營美女議員有大醜聞？徐巧芯驚爆「有很多資料」　預告立委選戰大戲</t>
-  </si>
-  <si>
-    <t>醉男突發酒瘋攻擊鄰座乘客　台鐵自強號被迫暫停行駛</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/JpnqQdYQnM</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/gGaMrzJgxK</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/D0xd6Am2WY</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/14a1mzroak</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/JpnqQdRRnM</t>
-  </si>
-  <si>
-    <t>陳定瑜／綜合報導（16:40發稿 17:47更新 明周一下午2時陳宗彥、李孟諺舉行記者會 公布完整內閣名單）行政院剛公布第3波內閣名單，屬總統職權的「國安三劍客」外交部長吳釗燮、國防部長邱國正、陸委會主委邱太三確定續任；等於原先蘇貞昌內閣再留任3人。另台北市前議員梁文傑去年九合一選舉連任失敗，卻得到入閣機會，接任陸委會副主委。外長吳釗燮（左起）、防長邱國正、陸委會主委邱太三，確定留任。（合成圖／取自中天新聞、陸委會官網）台北市前議員梁文傑去年九合一選舉連任失敗，卻得到入閣機會，接任陸委會副主委。（資料照／翻攝梁文傑臉書）另，原海基會副董事長兼秘書長詹志宏則將轉任陸委會副主委、原陸委會副主委邱垂正則將轉任海基會副董事長兼秘書長。原先另一位陸委會副主委吳美紅，因具文官資格，故將轉任海委會常務副主委。其陸委會副主委遺缺將由前台北市議員梁文傑接任，海委會另一位副主委周美伍兼海巡署長留任。外交部長吳釗燮日前傳出將與駐美代表蕭美琴互換職位，如今塵埃落定，兩人都留任。國防部完成恢復徵兵制後，傳出邱國正將卸下國防部長，轉任國防安全研究院董事長；邱太三原希望讓中生代接棒陸委會；今天確定邱國正、邱太三繼續留原位置奮鬥。行政院長蘇貞昌將於明（30）日周一率內閣總辭，後（31）日周二進行新舊內閣交接。明天下午2時將由陳宗彥、李孟諺舉行記者會，公布完整內閣名單，以及閣員的背景資料。</t>
-  </si>
-  <si>
-    <t>文／中央社　金門高梁等眾多台灣食品遭禁止進口中國大陸一事備受關注，大陸國台辦今天表示，包括金門酒廠在內的63家台灣企業已予以註冊或更新註冊信息。這代表陸方放行上述產品輸陸。大陸國務院台灣事務辦公室發言人馬曉光今天透過新聞稿表示，去年以來，部分台灣食品企業未能按相關規定完善註冊信息，影響了產品對大陸出口。近期包括金門酒廠在內的一些企業向大陸主管部門提交及補充完善了相關註冊資料，希望盡快獲得註冊，早日恢復對大陸的出口。大陸國台辦發言人馬曉光（圖／新華社）馬曉光說，陸方對此高度重視、積極處理。經有關主管部門審核，對金門酒廠等符合要求的63家企業予以註冊或更新註冊信息，而對於不符合要求、暫時無法註冊的，也逐一說明具體原因。他表示，陸方將繼續致力於促進兩岸經濟文化交流合作。對於部分台灣食品企業註冊信息不完整、不規範的問題，願意繼續予以協助解決，為台灣食品輸入大陸提供便利。新聞稿也提到，台灣食品企業因註冊問題無法輸陸後，透過中國國民黨前主席洪秀柱、新黨主席吳成典、金門縣長陳福海等有關人士和工商團體向對岸轉達訴求，希望盡快獲得註冊。中國大陸去年6月開始陸續禁台灣石斑、白帶魚、竹筴魚輸入，之後又指多家台灣食品廠、水產品加工廠等未完成更新註冊，暫停輸入相關產品；大陸海關總署去年底並以註冊訊息不完整為由，暫停台灣水產品及加工食品進口。大陸官方2021年4月公布「進口食品境外生產企業註冊管理規定」，要求全球輸銷大陸的食品生產、加工、貯存企業自2022年起皆須向大陸海關總署申請註冊。</t>
-  </si>
-  <si>
-    <t>記者陳冠甫／綜合報導準閣揆陳建仁近日陸續公布內閣成員名單，引發外界關注。對此，《美麗島電子報》董事長吳子嘉表示，萬一陳建仁的行情越來越好、聲望越來越高，甚至要是這個內閣做得好，那陳建仁或鄭文燦都將有可能參選總統，讓賴清德增加許多黨內競爭者。副總統賴清德。（ 資料照／中天新聞 ）吳子嘉28日在網路節目《董事長開講》中直言，陳建仁內閣將在3個月內碰到很多問題，這個大環境是前所未有的複雜，要看陳建仁能不能過關。吳子嘉也認為，現在這個內閣的特性，就是恢復到蔡英文第一次當總統的時代，每天蔡英文直接打電話給部長，「可是那個意義也不大了，因為未來2、3、4月可能發生的事，這個內閣罩得住嗎？」吳子嘉補充，這內閣唯一特性，就是跟賴清德沒有關係，媒體人錢怡君驚訝問到，它跟賴清德沒有關係！民眾黨縣黨部主委李偉華也同聲說「完全沒有關係」。至於，內閣名單內有賴系人馬，吳子嘉回應，民進黨很現實，誰給我頭路，我聽誰的話。吳子嘉說，民進黨這次內閣改組的特色，就是老闆娘回來了，蔡英文繼續掌握政府，就是不會讓賴清德干涉行政系統，整個指揮權都在蔡英文手上，也可稱為「蔡仁體制」，賴清德只管黨權，這對賴清德未來的選戰打法也不一定有利。吳子嘉也提及，民進黨未來幾個大問題，都要面臨非常大挑戰，麥卡錫來了之後。北京跟台灣態度一定會（改變）準確說，北京不會等到麥卡錫來台後才改變態度；而萬一陳建仁的行情越來越好、聲望越來越高，甚至要是這個內閣做得好，那陳建仁或鄭文燦都將有可能參選總統，讓賴清德增加許多黨內競爭者。</t>
-  </si>
-  <si>
-    <t>李奕緯／綜合報導國民黨台北市議員徐巧芯29日上網路節目《下班瀚你聊》，重申參選2024年台北市第7選區（信義、南松山）立委，因為現任立委費鴻泰上屆差點敗給民進黨台北市議員許淑華，徐巧芯稱她才有勝選把握，「我有很多她的資料」。許淑華、徐巧芯（合成圖／翻攝臉書）徐巧芯29日上網路節目《下班瀚你聊》專訪，被問到爭取2024立委相關問題，她表示希望舉行黨內初選，她也不會要求青年加權，她覺得這區就是要派出最強的人選，費鴻泰上一次其實已經差一點點就輸了，地方上支持她的理由，都是說只有她能夠在2024年贏過許淑華，保下信義南松山立委席次。徐巧芯強調：「我絕對會贏許淑華，大家可以相信我，因為我有很多她的資料在我的手機裡。」徐巧芯還開玩笑稱：「我如果沒有拿到參選的門票，（資料）我就沒有要拿出來。」後續她在訪問中才澄清，費鴻泰如果初選贏，她絕對也會支持，「許淑華的資料我也會pass給你，不用擔心。」</t>
-  </si>
-  <si>
-    <t>記者陳雍仁／綜合報導台鐵今（29）晚發生1起乘車旅客酒醉攻擊同車廂乘客事件，導致該班自強號臨時被迫暫停行駛，停靠新北市樹林站，通知警方上車處理，被攻擊的乘客也將提出傷害告訴，該班車次因此延誤抵達時間。台鐵今晚發生醉男打人事件。(示意圖／資料照片)據了解，29日晚間6點15分，鐵路警察局台北分局樹林所接獲台鐵樹林行車室通報，一輛行經桃園、鶯歌區間178車次自強號上，一名酒醉的龐姓男子因不明原因突然徒手攻擊鄰座曾姓乘客頭部，導致該班自強號只能暫時停靠樹林站，讓員警上車處理。被攻擊的曾姓乘客雖未有明顯外傷，但堅持要對龐姓男子提告，警方也將依規定辦理，將進一步傳喚龐男說明。</t>
+    <t>「大波建仁讓我噁心！」唐湘龍譙爆陳建仁3大不要臉</t>
+  </si>
+  <si>
+    <t>刮刮樂「2千萬頭獎」開出！老闆見貓咪櫃台竄　年後收喜訊：幸運兒是他們</t>
+  </si>
+  <si>
+    <t>快訊/宣布投入2024立委初選！徐巧芯5大參選宣言出爐：都是心裡話</t>
+  </si>
+  <si>
+    <t>28歲正妹作家離世「腳趾突長痣」竟是癌末　IG沉痛發聲「過好每一天！」</t>
+  </si>
+  <si>
+    <t>昔爆不滿曹佑寧「親密戲太多」分手！網紅前任「攜拖鞋男滑入香閨」疑洩戀情</t>
+  </si>
+  <si>
+    <t>https://ctinews.com/news/items/q9WPMwoeam</t>
+  </si>
+  <si>
+    <t>https://ctinews.com/news/items/rPnvj98KnY</t>
+  </si>
+  <si>
+    <t>https://ctinews.com/news/items/pRnYr8MNWY</t>
+  </si>
+  <si>
+    <t>https://ctinews.com/news/items/JpnqQ9RQnM</t>
+  </si>
+  <si>
+    <t>https://ctinews.com/news/items/JmxNr80Jx8</t>
+  </si>
+  <si>
+    <t>李奕緯／綜合報導行政院長陳建仁上任，但自中研院借調保留終身月領49萬元的爭議未歇，身為國民黨高雄白派創始人陳新安之子、曾有日本姓大波的家庭背景也引發熱議，廣播主持人唐湘龍1日發表評論，直指「大波建仁」有3個不要臉。陳建仁（圖／中天新聞）唐湘龍1日在廣播節目《飛碟早餐》表示，日據時代末期的1943年推行皇民化運動，台灣人改換日本姓的不超過10%，都是日據時代的既得利益者，「所以，像大波建仁這種的大波，表示在日據時代的時候是有嘗到甜頭的」。唐湘龍批評，大波建仁讓我覺得噁心的第一個就是他借調，行政院長這個職務可以借調？原因是49萬元戒不掉？借調的行政院長，如何去帶領專職、考選上來的文武百官？可以這麼不要臉當行政院長用借調的，自己49萬元戒不掉，請問底下文武百官抬頭怎麼看你？唐湘龍再批第2點：「回頭去看副總統陳建仁，也就是蔡英文第一任的時候，下狠手、用惡劣態度推動年金改革，召集人就是陳建仁。你回頭看陳建仁在當召集人的時候，在砍軍公教退休年金的時候，那出手、講話之豪爽！之霸氣！『每個人2、3萬可以啦！共體時艱！』你一定聽過陳建仁，你一定聽過林萬億！你一定聽過蔡英文領6萬元退休金被抓到的時候，涎著臉說6萬多砍掉以後我沒有辦法做公益。你蔡英文家裡面是開樂馬飯店的，美軍駐台時最主要的QK飯店，差那6萬元？」唐湘龍痛批陳建仁：「砍軍公教年金的時候砍到刀刀見骨，可是現在49萬元真捨不得？台灣老百姓看懂那49萬元對陳建仁的意義嗎？刀砍到你身上的時候你是絕對不會痛的，他一定不會痛，但是你被砍了他還能在你傷口上面抹鹽，告訴你要共體時艱，請問他願意為那49萬元共體時艱嗎？不，他的行政院長借調。唐湘龍繼續批：「第三個不要臉，是陳建仁講他家裡的故事，那個大波建仁政治受難者的故事。當你有大波這個名字，你不是政治受難者，你是政治受益者。陳建仁很噁心就是，明明是日據時代的受益者，更噁心的是，他們家到了國民黨時代還是受益者！他爸爸是被刻意培養的台籍菁英謝東閔重用的，謝東閔被罵頭號台奸被用郵包炸彈炸斷手，大波建仁的爸爸卻又不是台奸了？」唐湘龍強調：「大波建仁家的故事講得真是精采動容，但都是假的，在民進黨所有獨派團體最噁心的就是這些人，自我洗白，時間年表一對就知道全都在講假話，把自己包裝成政治受難者，講起來眉飛色舞，儼然頭上開始有光圈了，越講光圈越亮，自己在頭上點燈。台灣的問題不是有政治受難者，是政治讓人很難受，我看強調自己受難的都是在吃香喝辣的，你聽到這些明明沒有受難，還受益，還是三朝元老！包裝成受難者，真是讓人難受！大波建仁。」</t>
+  </si>
+  <si>
+    <t>記者温振甫／綜合報導台灣彩券在過年期間推出各式各樣的刮刮樂，其中最夯的莫過於1張要價2千元的「2000萬超級紅包」，雖多數人刮完後都淪為韭菜遭收割，但昨（上月31日）位於屏東縣的一家彩券行，還真有人刮中頭獎，成為今年第二位豪奪2千萬的幸運兒。2000萬超級紅包昨天又開出一張。（示意圖／中天新聞）「2000萬超級紅包」號稱中獎率69.33%，今年一樣吸引不少民眾砸錢購買，不過往往都是淪為韭菜的份，今年的第一個頭獎2千萬，獎落宜蘭縣城隍廟附近的「建明鐘錶眼鏡行」，由一對年輕夫婦帶著小朋友們前來購買，要孩子猜拳決定買哪張，結果真的給他們刮中頭獎。據《TVBS》報導，位於屏東縣麟洛鄉中山路的「錢家彩券行」，昨天傳出有人刮出第二張頭獎，據悉，當時1名年約40歲的婦女帶著小朋友前來，買了3張刮刮樂，結果其中1張就是最大獎，也讓他們順利抱回2千萬。彩券行老闆透露，其實在過年期間，就看到一隻貓咪在櫃檯走動，民眾見到都覺得帶財，沒想到還真開出頭獎，他在接獲消息後馬上去買鞭炮來大肆慶祝一番。</t>
+  </si>
+  <si>
+    <t>記者 李俊毅／綜合報導國民黨台北市議員徐巧芯日前已表態爭取參選2024立委，並喊出世代交替，挑戰同區現任國民黨資深立委費鴻泰。而就在2月1日立法院新會期展開這天，徐巧芯隨即宣布投入國民黨「信義．南松山」選區的立法委員初選。並公布5大參選事由。並強調，她絕對不會是一個「佛系立委」，而是讓大家看到一個「神擋殺神、佛擋殺佛」的立法委員。國民黨台北市議員徐巧芯，於今(1日)宣布投入2024國民黨立委初選。(圖/翻攝自徐巧芯臉書)徐巧芯1日在臉書宣布，如果進入立法院，自己會跟其他人有什麼不一樣的地方？她今天列出五大重點，向各位說明，她將會是一個什麼樣的立法委員，5大重點如下：一、要選出能贏的人，下架民進黨！這裡指得「能贏」，不只是贏下這個選區的立委席次，更是利用自身的議題能力，協助國民黨全力下架民進黨。2020年的立委選舉，國民黨台北市第七選區在風雨飄搖中險勝，因此許多人都擔心這一次若是同一個組合再戰，可能會輸掉席次。但我不一樣，因為我早就收集了潛在對手的「資料」在手機裡，等到初選過後，會一一丟出，我有信心自己絕對能夠贏下大選，甚至影響大選的結果。「下架民進黨」是2024年在野陣營的總目標，我會在選舉過程中，幫助國民黨的總統候選人贏得勝利，只要夠積極，小雞也可以帶著母雞跑！二、「解密台灣」，國會需要即戰力！理性又犀利的問政，加上豐富的資訊查證，才有可能制衡民進黨。我能寫、敢講、能戰、聲量高，如果進到國會，就是國民黨的即戰力。國民黨在立法院，需要一個敢勇敢、不顧一切往前衝的人。我不和稀泥，不鄉愿，甚至「不講武德」，對民進黨來說，我就是個心狠手辣的「惡女」看過我打2022這場仗的人就知道，要讓「不好惹」的人在前面衝，我們才有贏的機會。此外，即使國民黨2024全面執政，我也保證不會放過民進黨這八年的黑幕，這八年沒人查的，我來查！我會當一個「考古學家」，把這段被鎖住的歷史一一解密。包括蔡英文的政大升等論文、疫苗採購的資料、放言跟中油台電的合作案⋯⋯我都會要求政府部門一一交出資料，分析統整後，公布在網路上讓全台灣的人民都可以看到真相，就像蜜獾一樣緊咬，一個都不會放過！三、重振國民黨年輕人的支持度！時代在改變，必須了解社群網路、大數據，才有可能跟得上時代，成為年輕人選擇的可能。年輕人不是不能支持國民黨，但他們需要了解他們語言與生活的人來代表他們，彼此才能夠更加理解。因此國會也是時候換上新血，爭取不同世代的認同了。尤其現在的選舉節奏，經常掌握在網路上，每一分一秒、不論現在是晚上幾點，網路戰都在進行中，不懂得對方的戰法，就會被碾壓！我懂網路，長時間在網路上作戰並且了解年輕人的聲音，我有信心擔任立委能夠重振國民黨的青年支持度。四、抓出網軍、擊垮側翼！未來進到國會，我會強力監督政府的宣傳預算與媒體標案，包括「放言」歷年來跟台電、中油的標案相關數據細目，我都會要求對方提供並且提供讓大眾公評。抓出網軍、擊垮側翼是我的專長，但我沒有足夠的資源可以查辦下去。唯有進到立法院，才能檢視更多預算與績效報告，從當中找到貓膩，蔡政府這兩任內若有透過公帑攻擊政敵的案子，我一個都不會放過，通通會揭露出來，讓大家看到血流成河！五、南松山信義需要串連與再生！在我的議員任內，不斷推動「南松山再生計畫」，把大巨蛋、松菸文創跟鐵道園區串連，打開信義區跟南松山區的隔閡。整體的計畫已經編製完成，但鐵道園區是由中央文化部所管，時程總是不斷延後，只有進到國會，才能監督、要求中央盡快配合台北市政府加速，打通南松山、信義的任督二脈。接下來，我會更積極的在地方上爭取民眾的支持跟認同，也會釋出更多政見，不管初選制度如何，都盡力打贏這場選戰，希望大家可以支持年輕戰力進入國會。我絕對不會是一個佛系立委，而是讓大家看到一個神擋殺神、佛擋殺佛的立法委員。最後，徐巧芯坦言，她想說一點心裡話。由於自己是第一個跳出來說要挑戰黨內初選的。許多人曾問她「壓力會不會大？」徐巧芯表示，說真的，比跟民進黨作戰的壓力小多了。何況，壓力從來就是讓自己變得更強的來源，甚至不打算拒絕它的存在。徐巧芯坦言，其實也就幾年前而已，自己從一個默默無聞的早餐店女孩，到國民黨青年團打工仔，後來成為了發言人，再組了一個自己的團隊選市議員，從第二名選到選區第一名。每一個過程都不簡單，但每一個關卡，她都拚盡全力的通過考驗。說起來，自己沒有什麼厲害的背景，無論是家族的勢力或者財力，都相當貧乏。「但我唯一有的就是勇氣跟戰略，和自己的本心，在灰暗的政治圈殺出一條光明的路，甚至帶給大家樂趣、溫暖、歡笑。這是我想要的政治，我要用自己的雙手來實踐。我要讓更多年輕人知道，徐巧芯可以，他們也可以。讓年輕的人才在國民黨看到希望，這個百年老黨的歷史才有機會不斷的綿延下去。」徐巧芯也說，這次參與黨內初選，也是對她個人的一個挑戰，縱使知道不容易，但就是不容易才有挑戰的價值。若將來要進到立法院，就需要通過初選，拿到門票。「拜託親愛的你們，做我的後盾，給我百分之百的支持！我們會贏！」</t>
+  </si>
+  <si>
+    <t>圖、文／CTWANT身上突然長痣，可能是一種警訊。澳洲一名正妹作家納塔莉（NatalieFornasier）20歲的時候發現腳趾多了1顆痣，檢查竟是罹患惡性黑色素瘤（Malignant melanoma），去年7月被告知只剩幾個月生命，在和病魔長期抗爭，不幸在今年1月14日離世，得年28歲。澳洲一名正妹作家20歲發現腳趾長痣，檢查竟是惡性黑色素瘤。（圖／翻攝自Natalie Fornasier IG）根據《第7頻道新聞網》報導，納塔莉8年前注意到腳趾上出現1顆黑痣，就醫檢查被診斷罹患皮膚癌第3期，後來腫瘤轉移，擴散到身體其他部位，她在去年7月底得知自己已經癌症末期，只剩幾個月的生命，歷經4個月的絕望，她終於在IG發文公開此事，「承認快要死亡並不容易，28歲…一切都感覺不真實」，坦言自己很痛苦。老公亞力山大（Alexander）證實，納塔莉已於本月14日離世，他引述納塔莉的話：「要有信心，擁抱你的疾病，不要隱藏或忽視它」，分享妻子的故事讓他覺得充滿力量，也給了其他人無限的勇氣，同時也告白：「我愛上了美麗的靈魂，很榮幸能和妳相遇，我愛妳納塔莉，永遠永遠」，並感謝粉絲的支持，結尾寫下「盡你所能去愛」。據了解，納塔莉在2018年歐洲旅行時認識老公亞力山大，對方從德國搬到澳洲和她一起生活。面對即將離開的事實，她心碎說道：「我將要離開我的愛人和我們應該擁有的生活」，對死亡感到恐懼而哭得聲嘶力竭，不過最後她轉念，樂觀表示：「死亡讓人感到難以置信的孤獨，但我從未感到如此被愛」，即使肉體離開了，她仍然會以某種方式繼續在這世界，「所以過好每一天，盡可能地去愛」。更多【CTWANT】報導不滿遊客經過自家土地　村民攔車討45元「過路費」下場慘了11歲少女過年擺攤　賣發光玩具「13天賺4.4萬」忙到半夜才回家男子早上6點「床上運動」好幾周　鄰居不忍了留紙條：拜託閉嘴…結局神展開</t>
+  </si>
+  <si>
+    <t>圖、文／CTWANT曹佑寧的校花前女友鍾蕙羽日前被直擊盛裝與朋友聚會。（圖／CTWANT提供）去年六月底，人氣男神曹佑寧（小曹），與前輔大校花女友鍾蕙羽共同宣布分手消息，分手原因曾被網友猜測是因曹佑寧到大陸拍攝網劇，和女主角余玥有不少親密對手戲，私下還互動頻頻，因此惹怒鍾蕙羽向余玥開砲，最後六年情也因而告吹。時隔半年多，時報周刊CTWANT補捉到鍾蕙羽有了新歡，新男友騎著機車來接她，她歡歡喜喜跨上機車離去，而這段新戀情似乎也受到姊妹淘們的認可，滿臉笑意的她看起來非常幸福。聚會完鍾蕙羽上了朋友的車，但車子卻一直停在路邊沒有移動。（圖／CTWANT提供）接著有一名穿著白襪拖鞋的機車騎士在車邊停下來，鍾蕙羽立刻下車奔向該男子。（圖／CTWANT提供）一月10日晚間十點多，現在是知名網紅的鍾蕙羽，和幾個友人走出台北市大安區一家高檔燒肉餐廳，眾人在餐廳門口道別後陸續離去，鍾蕙羽則和一名女友人坐進等在路邊的轎車。奇怪的是，車子就這麼停在原地哪也沒去，似乎並不打算開走。鍾蕙羽的友人跟她和白襪拖鞋男子揮手道別。（圖／CTWANT提供）鍾蕙羽豪邁地跨開大腿登上機車。（圖／CTWANT提供）約莫十分鐘後，一名穿著白襪加拖鞋的男子騎著電動機車停到車後方，隨後鍾蕙羽便和友人一起下車，幾個人互相打了招呼。此時，一隻臘腸狗興奮地緊盯著鍾蕙羽搖尾巴，巴不得掙脫繫狗繩從男子的機車踏墊躍下，原來這條臘腸狗正是鍾蕙羽的愛犬Koi。坐在後座的鍾蕙羽甜蜜地緊貼在男子背部。（圖／CTWANT提供）男子與鍾蕙羽一起進門返家。（圖／CTWANT提供）幾個人寒暄幾句後，友人驅車離去，鍾蕙羽則搭上男子的機車，也不管身上穿的是短裙，一腳直接跨過坐墊上車，看來相當豪邁。隨後，兩人一狗一路直奔台北市松山區一處住宅大樓，並直接騎進停車場，幾分鐘後兩人身影出現在一樓大廳，搭乘電梯上樓。而這個地方正是鍾蕙羽的新住處。日前鍾蕙羽從日本旅遊返台回到家進門時還在IG上貼文，照片正是該大樓的大門入口。而當天早上的貼文上更可以看出兩人一狗出門散步的影片，男子同樣穿著拖鞋和白色襪子。在告別了舊戀情後，如今已經不僅有了新歡，而且兩人的發展看來相當神速，已經展開與新男友同進同出的新生活。日前鍾蕙羽從日本返台返家時PO的照片，與小倆口一起回去的社區大廈是同一棟，大門的燈飾相同。（圖／CTWANT提供）新男友穿白襪配拖鞋的打扮，以及穿著史努比衣服的愛犬，都出現在鍾蕙羽的IG限動中。（圖／CTWANT提供）而1月14日過生日的鍾蕙羽，也開心地在IG分享許多慶生的照片，完全不避嫌地將她和男友的合照PO出，雖然照片中還有其他姊妹淘好友，但小倆口黏在一起的模樣，關係昭然若揭，她還在IG上感謝她的「媒人」，也引起網友們好奇留言問她這是不是新男友，可見就如同過去和小曹交往一般，鍾蕙羽似乎並不想談偷偷摸摸的戀愛，而是很樂意與粉絲網友分享自己的感情世界。日前鍾蕙羽分享慶生照，許多朋友同歡，但照片中她與白上衣西裝頭男子特別親暱，關係明顯不同。（圖／取自鍾蕙羽IG）</t>
   </si>
 </sst>
 </file>

--- a/ctinews_data.xlsx
+++ b/ctinews_data.xlsx
@@ -1,106 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>「大波建仁讓我噁心！」唐湘龍譙爆陳建仁3大不要臉</t>
-  </si>
-  <si>
-    <t>刮刮樂「2千萬頭獎」開出！老闆見貓咪櫃台竄　年後收喜訊：幸運兒是他們</t>
-  </si>
-  <si>
-    <t>快訊/宣布投入2024立委初選！徐巧芯5大參選宣言出爐：都是心裡話</t>
-  </si>
-  <si>
-    <t>28歲正妹作家離世「腳趾突長痣」竟是癌末　IG沉痛發聲「過好每一天！」</t>
-  </si>
-  <si>
-    <t>昔爆不滿曹佑寧「親密戲太多」分手！網紅前任「攜拖鞋男滑入香閨」疑洩戀情</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/q9WPMwoeam</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/rPnvj98KnY</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/pRnYr8MNWY</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/JpnqQ9RQnM</t>
-  </si>
-  <si>
-    <t>https://ctinews.com/news/items/JmxNr80Jx8</t>
-  </si>
-  <si>
-    <t>李奕緯／綜合報導行政院長陳建仁上任，但自中研院借調保留終身月領49萬元的爭議未歇，身為國民黨高雄白派創始人陳新安之子、曾有日本姓大波的家庭背景也引發熱議，廣播主持人唐湘龍1日發表評論，直指「大波建仁」有3個不要臉。陳建仁（圖／中天新聞）唐湘龍1日在廣播節目《飛碟早餐》表示，日據時代末期的1943年推行皇民化運動，台灣人改換日本姓的不超過10%，都是日據時代的既得利益者，「所以，像大波建仁這種的大波，表示在日據時代的時候是有嘗到甜頭的」。唐湘龍批評，大波建仁讓我覺得噁心的第一個就是他借調，行政院長這個職務可以借調？原因是49萬元戒不掉？借調的行政院長，如何去帶領專職、考選上來的文武百官？可以這麼不要臉當行政院長用借調的，自己49萬元戒不掉，請問底下文武百官抬頭怎麼看你？唐湘龍再批第2點：「回頭去看副總統陳建仁，也就是蔡英文第一任的時候，下狠手、用惡劣態度推動年金改革，召集人就是陳建仁。你回頭看陳建仁在當召集人的時候，在砍軍公教退休年金的時候，那出手、講話之豪爽！之霸氣！『每個人2、3萬可以啦！共體時艱！』你一定聽過陳建仁，你一定聽過林萬億！你一定聽過蔡英文領6萬元退休金被抓到的時候，涎著臉說6萬多砍掉以後我沒有辦法做公益。你蔡英文家裡面是開樂馬飯店的，美軍駐台時最主要的QK飯店，差那6萬元？」唐湘龍痛批陳建仁：「砍軍公教年金的時候砍到刀刀見骨，可是現在49萬元真捨不得？台灣老百姓看懂那49萬元對陳建仁的意義嗎？刀砍到你身上的時候你是絕對不會痛的，他一定不會痛，但是你被砍了他還能在你傷口上面抹鹽，告訴你要共體時艱，請問他願意為那49萬元共體時艱嗎？不，他的行政院長借調。唐湘龍繼續批：「第三個不要臉，是陳建仁講他家裡的故事，那個大波建仁政治受難者的故事。當你有大波這個名字，你不是政治受難者，你是政治受益者。陳建仁很噁心就是，明明是日據時代的受益者，更噁心的是，他們家到了國民黨時代還是受益者！他爸爸是被刻意培養的台籍菁英謝東閔重用的，謝東閔被罵頭號台奸被用郵包炸彈炸斷手，大波建仁的爸爸卻又不是台奸了？」唐湘龍強調：「大波建仁家的故事講得真是精采動容，但都是假的，在民進黨所有獨派團體最噁心的就是這些人，自我洗白，時間年表一對就知道全都在講假話，把自己包裝成政治受難者，講起來眉飛色舞，儼然頭上開始有光圈了，越講光圈越亮，自己在頭上點燈。台灣的問題不是有政治受難者，是政治讓人很難受，我看強調自己受難的都是在吃香喝辣的，你聽到這些明明沒有受難，還受益，還是三朝元老！包裝成受難者，真是讓人難受！大波建仁。」</t>
-  </si>
-  <si>
-    <t>記者温振甫／綜合報導台灣彩券在過年期間推出各式各樣的刮刮樂，其中最夯的莫過於1張要價2千元的「2000萬超級紅包」，雖多數人刮完後都淪為韭菜遭收割，但昨（上月31日）位於屏東縣的一家彩券行，還真有人刮中頭獎，成為今年第二位豪奪2千萬的幸運兒。2000萬超級紅包昨天又開出一張。（示意圖／中天新聞）「2000萬超級紅包」號稱中獎率69.33%，今年一樣吸引不少民眾砸錢購買，不過往往都是淪為韭菜的份，今年的第一個頭獎2千萬，獎落宜蘭縣城隍廟附近的「建明鐘錶眼鏡行」，由一對年輕夫婦帶著小朋友們前來購買，要孩子猜拳決定買哪張，結果真的給他們刮中頭獎。據《TVBS》報導，位於屏東縣麟洛鄉中山路的「錢家彩券行」，昨天傳出有人刮出第二張頭獎，據悉，當時1名年約40歲的婦女帶著小朋友前來，買了3張刮刮樂，結果其中1張就是最大獎，也讓他們順利抱回2千萬。彩券行老闆透露，其實在過年期間，就看到一隻貓咪在櫃檯走動，民眾見到都覺得帶財，沒想到還真開出頭獎，他在接獲消息後馬上去買鞭炮來大肆慶祝一番。</t>
-  </si>
-  <si>
-    <t>記者 李俊毅／綜合報導國民黨台北市議員徐巧芯日前已表態爭取參選2024立委，並喊出世代交替，挑戰同區現任國民黨資深立委費鴻泰。而就在2月1日立法院新會期展開這天，徐巧芯隨即宣布投入國民黨「信義．南松山」選區的立法委員初選。並公布5大參選事由。並強調，她絕對不會是一個「佛系立委」，而是讓大家看到一個「神擋殺神、佛擋殺佛」的立法委員。國民黨台北市議員徐巧芯，於今(1日)宣布投入2024國民黨立委初選。(圖/翻攝自徐巧芯臉書)徐巧芯1日在臉書宣布，如果進入立法院，自己會跟其他人有什麼不一樣的地方？她今天列出五大重點，向各位說明，她將會是一個什麼樣的立法委員，5大重點如下：一、要選出能贏的人，下架民進黨！這裡指得「能贏」，不只是贏下這個選區的立委席次，更是利用自身的議題能力，協助國民黨全力下架民進黨。2020年的立委選舉，國民黨台北市第七選區在風雨飄搖中險勝，因此許多人都擔心這一次若是同一個組合再戰，可能會輸掉席次。但我不一樣，因為我早就收集了潛在對手的「資料」在手機裡，等到初選過後，會一一丟出，我有信心自己絕對能夠贏下大選，甚至影響大選的結果。「下架民進黨」是2024年在野陣營的總目標，我會在選舉過程中，幫助國民黨的總統候選人贏得勝利，只要夠積極，小雞也可以帶著母雞跑！二、「解密台灣」，國會需要即戰力！理性又犀利的問政，加上豐富的資訊查證，才有可能制衡民進黨。我能寫、敢講、能戰、聲量高，如果進到國會，就是國民黨的即戰力。國民黨在立法院，需要一個敢勇敢、不顧一切往前衝的人。我不和稀泥，不鄉愿，甚至「不講武德」，對民進黨來說，我就是個心狠手辣的「惡女」看過我打2022這場仗的人就知道，要讓「不好惹」的人在前面衝，我們才有贏的機會。此外，即使國民黨2024全面執政，我也保證不會放過民進黨這八年的黑幕，這八年沒人查的，我來查！我會當一個「考古學家」，把這段被鎖住的歷史一一解密。包括蔡英文的政大升等論文、疫苗採購的資料、放言跟中油台電的合作案⋯⋯我都會要求政府部門一一交出資料，分析統整後，公布在網路上讓全台灣的人民都可以看到真相，就像蜜獾一樣緊咬，一個都不會放過！三、重振國民黨年輕人的支持度！時代在改變，必須了解社群網路、大數據，才有可能跟得上時代，成為年輕人選擇的可能。年輕人不是不能支持國民黨，但他們需要了解他們語言與生活的人來代表他們，彼此才能夠更加理解。因此國會也是時候換上新血，爭取不同世代的認同了。尤其現在的選舉節奏，經常掌握在網路上，每一分一秒、不論現在是晚上幾點，網路戰都在進行中，不懂得對方的戰法，就會被碾壓！我懂網路，長時間在網路上作戰並且了解年輕人的聲音，我有信心擔任立委能夠重振國民黨的青年支持度。四、抓出網軍、擊垮側翼！未來進到國會，我會強力監督政府的宣傳預算與媒體標案，包括「放言」歷年來跟台電、中油的標案相關數據細目，我都會要求對方提供並且提供讓大眾公評。抓出網軍、擊垮側翼是我的專長，但我沒有足夠的資源可以查辦下去。唯有進到立法院，才能檢視更多預算與績效報告，從當中找到貓膩，蔡政府這兩任內若有透過公帑攻擊政敵的案子，我一個都不會放過，通通會揭露出來，讓大家看到血流成河！五、南松山信義需要串連與再生！在我的議員任內，不斷推動「南松山再生計畫」，把大巨蛋、松菸文創跟鐵道園區串連，打開信義區跟南松山區的隔閡。整體的計畫已經編製完成，但鐵道園區是由中央文化部所管，時程總是不斷延後，只有進到國會，才能監督、要求中央盡快配合台北市政府加速，打通南松山、信義的任督二脈。接下來，我會更積極的在地方上爭取民眾的支持跟認同，也會釋出更多政見，不管初選制度如何，都盡力打贏這場選戰，希望大家可以支持年輕戰力進入國會。我絕對不會是一個佛系立委，而是讓大家看到一個神擋殺神、佛擋殺佛的立法委員。最後，徐巧芯坦言，她想說一點心裡話。由於自己是第一個跳出來說要挑戰黨內初選的。許多人曾問她「壓力會不會大？」徐巧芯表示，說真的，比跟民進黨作戰的壓力小多了。何況，壓力從來就是讓自己變得更強的來源，甚至不打算拒絕它的存在。徐巧芯坦言，其實也就幾年前而已，自己從一個默默無聞的早餐店女孩，到國民黨青年團打工仔，後來成為了發言人，再組了一個自己的團隊選市議員，從第二名選到選區第一名。每一個過程都不簡單，但每一個關卡，她都拚盡全力的通過考驗。說起來，自己沒有什麼厲害的背景，無論是家族的勢力或者財力，都相當貧乏。「但我唯一有的就是勇氣跟戰略，和自己的本心，在灰暗的政治圈殺出一條光明的路，甚至帶給大家樂趣、溫暖、歡笑。這是我想要的政治，我要用自己的雙手來實踐。我要讓更多年輕人知道，徐巧芯可以，他們也可以。讓年輕的人才在國民黨看到希望，這個百年老黨的歷史才有機會不斷的綿延下去。」徐巧芯也說，這次參與黨內初選，也是對她個人的一個挑戰，縱使知道不容易，但就是不容易才有挑戰的價值。若將來要進到立法院，就需要通過初選，拿到門票。「拜託親愛的你們，做我的後盾，給我百分之百的支持！我們會贏！」</t>
-  </si>
-  <si>
-    <t>圖、文／CTWANT身上突然長痣，可能是一種警訊。澳洲一名正妹作家納塔莉（NatalieFornasier）20歲的時候發現腳趾多了1顆痣，檢查竟是罹患惡性黑色素瘤（Malignant melanoma），去年7月被告知只剩幾個月生命，在和病魔長期抗爭，不幸在今年1月14日離世，得年28歲。澳洲一名正妹作家20歲發現腳趾長痣，檢查竟是惡性黑色素瘤。（圖／翻攝自Natalie Fornasier IG）根據《第7頻道新聞網》報導，納塔莉8年前注意到腳趾上出現1顆黑痣，就醫檢查被診斷罹患皮膚癌第3期，後來腫瘤轉移，擴散到身體其他部位，她在去年7月底得知自己已經癌症末期，只剩幾個月的生命，歷經4個月的絕望，她終於在IG發文公開此事，「承認快要死亡並不容易，28歲…一切都感覺不真實」，坦言自己很痛苦。老公亞力山大（Alexander）證實，納塔莉已於本月14日離世，他引述納塔莉的話：「要有信心，擁抱你的疾病，不要隱藏或忽視它」，分享妻子的故事讓他覺得充滿力量，也給了其他人無限的勇氣，同時也告白：「我愛上了美麗的靈魂，很榮幸能和妳相遇，我愛妳納塔莉，永遠永遠」，並感謝粉絲的支持，結尾寫下「盡你所能去愛」。據了解，納塔莉在2018年歐洲旅行時認識老公亞力山大，對方從德國搬到澳洲和她一起生活。面對即將離開的事實，她心碎說道：「我將要離開我的愛人和我們應該擁有的生活」，對死亡感到恐懼而哭得聲嘶力竭，不過最後她轉念，樂觀表示：「死亡讓人感到難以置信的孤獨，但我從未感到如此被愛」，即使肉體離開了，她仍然會以某種方式繼續在這世界，「所以過好每一天，盡可能地去愛」。更多【CTWANT】報導不滿遊客經過自家土地　村民攔車討45元「過路費」下場慘了11歲少女過年擺攤　賣發光玩具「13天賺4.4萬」忙到半夜才回家男子早上6點「床上運動」好幾周　鄰居不忍了留紙條：拜託閉嘴…結局神展開</t>
-  </si>
-  <si>
-    <t>圖、文／CTWANT曹佑寧的校花前女友鍾蕙羽日前被直擊盛裝與朋友聚會。（圖／CTWANT提供）去年六月底，人氣男神曹佑寧（小曹），與前輔大校花女友鍾蕙羽共同宣布分手消息，分手原因曾被網友猜測是因曹佑寧到大陸拍攝網劇，和女主角余玥有不少親密對手戲，私下還互動頻頻，因此惹怒鍾蕙羽向余玥開砲，最後六年情也因而告吹。時隔半年多，時報周刊CTWANT補捉到鍾蕙羽有了新歡，新男友騎著機車來接她，她歡歡喜喜跨上機車離去，而這段新戀情似乎也受到姊妹淘們的認可，滿臉笑意的她看起來非常幸福。聚會完鍾蕙羽上了朋友的車，但車子卻一直停在路邊沒有移動。（圖／CTWANT提供）接著有一名穿著白襪拖鞋的機車騎士在車邊停下來，鍾蕙羽立刻下車奔向該男子。（圖／CTWANT提供）一月10日晚間十點多，現在是知名網紅的鍾蕙羽，和幾個友人走出台北市大安區一家高檔燒肉餐廳，眾人在餐廳門口道別後陸續離去，鍾蕙羽則和一名女友人坐進等在路邊的轎車。奇怪的是，車子就這麼停在原地哪也沒去，似乎並不打算開走。鍾蕙羽的友人跟她和白襪拖鞋男子揮手道別。（圖／CTWANT提供）鍾蕙羽豪邁地跨開大腿登上機車。（圖／CTWANT提供）約莫十分鐘後，一名穿著白襪加拖鞋的男子騎著電動機車停到車後方，隨後鍾蕙羽便和友人一起下車，幾個人互相打了招呼。此時，一隻臘腸狗興奮地緊盯著鍾蕙羽搖尾巴，巴不得掙脫繫狗繩從男子的機車踏墊躍下，原來這條臘腸狗正是鍾蕙羽的愛犬Koi。坐在後座的鍾蕙羽甜蜜地緊貼在男子背部。（圖／CTWANT提供）男子與鍾蕙羽一起進門返家。（圖／CTWANT提供）幾個人寒暄幾句後，友人驅車離去，鍾蕙羽則搭上男子的機車，也不管身上穿的是短裙，一腳直接跨過坐墊上車，看來相當豪邁。隨後，兩人一狗一路直奔台北市松山區一處住宅大樓，並直接騎進停車場，幾分鐘後兩人身影出現在一樓大廳，搭乘電梯上樓。而這個地方正是鍾蕙羽的新住處。日前鍾蕙羽從日本旅遊返台回到家進門時還在IG上貼文，照片正是該大樓的大門入口。而當天早上的貼文上更可以看出兩人一狗出門散步的影片，男子同樣穿著拖鞋和白色襪子。在告別了舊戀情後，如今已經不僅有了新歡，而且兩人的發展看來相當神速，已經展開與新男友同進同出的新生活。日前鍾蕙羽從日本返台返家時PO的照片，與小倆口一起回去的社區大廈是同一棟，大門的燈飾相同。（圖／CTWANT提供）新男友穿白襪配拖鞋的打扮，以及穿著史努比衣服的愛犬，都出現在鍾蕙羽的IG限動中。（圖／CTWANT提供）而1月14日過生日的鍾蕙羽，也開心地在IG分享許多慶生的照片，完全不避嫌地將她和男友的合照PO出，雖然照片中還有其他姊妹淘好友，但小倆口黏在一起的模樣，關係昭然若揭，她還在IG上感謝她的「媒人」，也引起網友們好奇留言問她這是不是新男友，可見就如同過去和小曹交往一般，鍾蕙羽似乎並不想談偷偷摸摸的戀愛，而是很樂意與粉絲網友分享自己的感情世界。日前鍾蕙羽分享慶生照，許多朋友同歡，但照片中她與白上衣西裝頭男子特別親暱，關係明顯不同。（圖／取自鍾蕙羽IG）</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -115,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -437,102 +420,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>